--- a/tabelka.xlsx
+++ b/tabelka.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nazwa</t>
   </si>
@@ -42,274 +42,55 @@
     <t>ATrain.wav</t>
   </si>
   <si>
-    <t>1688526.000000</t>
-  </si>
-  <si>
-    <t>984597.915997</t>
-  </si>
-  <si>
-    <t>45940.023717</t>
-  </si>
-  <si>
-    <t>11.882516</t>
-  </si>
-  <si>
-    <t>9.422552</t>
-  </si>
-  <si>
     <t>Lp</t>
   </si>
   <si>
     <t>BeautySlept.wav</t>
   </si>
   <si>
-    <t>1378518.000000</t>
-  </si>
-  <si>
-    <t>2179311.772730</t>
-  </si>
-  <si>
-    <t>297318.832815</t>
-  </si>
-  <si>
-    <t>11.889543</t>
-  </si>
-  <si>
-    <t>10.719251</t>
-  </si>
-  <si>
     <t>death2.wav</t>
   </si>
   <si>
-    <t>1652746.000000</t>
-  </si>
-  <si>
-    <t>1623003.679149</t>
-  </si>
-  <si>
-    <t>14.540730</t>
-  </si>
-  <si>
-    <t>10.056347</t>
-  </si>
-  <si>
-    <t>61346441.926340</t>
-  </si>
-  <si>
     <t>experiencia.wav</t>
   </si>
   <si>
-    <t>1764588.000000</t>
-  </si>
-  <si>
-    <t>54135234.797000</t>
-  </si>
-  <si>
-    <t>4055992.187795</t>
-  </si>
-  <si>
-    <t>14.831846</t>
-  </si>
-  <si>
-    <t>12.680255</t>
-  </si>
-  <si>
     <t>female_speech.wav</t>
   </si>
   <si>
-    <t>1692318.000000</t>
-  </si>
-  <si>
-    <t>5706843.100843</t>
-  </si>
-  <si>
-    <t>517871.516272</t>
-  </si>
-  <si>
-    <t>12.455685</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.494618</t>
-  </si>
-  <si>
     <t>FloorEssence.wav</t>
   </si>
   <si>
-    <t>1764384.000000</t>
-  </si>
-  <si>
-    <t>43845200.695689</t>
-  </si>
-  <si>
-    <t>2696936.575714</t>
-  </si>
-  <si>
-    <t>14.685038</t>
-  </si>
-  <si>
-    <t>12.352198</t>
-  </si>
-  <si>
     <t>ItCouldBeSweet.wav</t>
   </si>
   <si>
-    <t>1765496.000000</t>
-  </si>
-  <si>
-    <t>78248574.411469</t>
-  </si>
-  <si>
-    <t>1841797.675044</t>
-  </si>
-  <si>
-    <t>15.101420</t>
-  </si>
-  <si>
-    <t>11.863737</t>
-  </si>
-  <si>
     <t>Layla.wav</t>
   </si>
   <si>
-    <t>1749206.000000</t>
-  </si>
-  <si>
-    <t>12223548.294355</t>
-  </si>
-  <si>
-    <t>1612347.493279</t>
-  </si>
-  <si>
-    <t>13.737943</t>
-  </si>
-  <si>
-    <t>11.506192</t>
-  </si>
-  <si>
     <t>LifeShatters.wav</t>
   </si>
   <si>
-    <t>1756156.000000</t>
-  </si>
-  <si>
-    <t>51664030.320415</t>
-  </si>
-  <si>
-    <t>3390926.153129</t>
-  </si>
-  <si>
-    <t>14.806514</t>
-  </si>
-  <si>
-    <t>12.862774</t>
-  </si>
-  <si>
     <t>macabre.wav</t>
   </si>
   <si>
-    <t>1540674.000000</t>
-  </si>
-  <si>
-    <t>15838569.226852</t>
-  </si>
-  <si>
-    <t>361483.382039</t>
-  </si>
-  <si>
-    <t>13.831373</t>
-  </si>
-  <si>
-    <t>11.164281</t>
-  </si>
-  <si>
     <t>male_speech.wav</t>
   </si>
   <si>
-    <t>1583468.000000</t>
-  </si>
-  <si>
-    <t>7765517.340254</t>
-  </si>
-  <si>
-    <t>89120.425375</t>
-  </si>
-  <si>
-    <t>12.372779</t>
-  </si>
-  <si>
-    <t>9.361511</t>
-  </si>
-  <si>
     <t>SinceAlways.wav</t>
   </si>
   <si>
-    <t>1604472.000000</t>
-  </si>
-  <si>
-    <t>45135768.804175</t>
-  </si>
-  <si>
-    <t>6092142.813648</t>
-  </si>
-  <si>
-    <t>14.576207</t>
-  </si>
-  <si>
-    <t>12.941408</t>
-  </si>
-  <si>
     <t>thear1.wav</t>
   </si>
   <si>
-    <t>1703930.000000</t>
-  </si>
-  <si>
-    <t>79263721.408281</t>
-  </si>
-  <si>
-    <t>4073803.784406</t>
-  </si>
-  <si>
-    <t>15.100598</t>
-  </si>
-  <si>
-    <t>12.970792</t>
-  </si>
-  <si>
     <t>TomsDiner.wav</t>
   </si>
   <si>
-    <t>1751498.000000</t>
-  </si>
-  <si>
-    <t>5268735.867492</t>
-  </si>
-  <si>
-    <t>299479.965361</t>
-  </si>
-  <si>
-    <t>12.642949</t>
-  </si>
-  <si>
-    <t>10.395452</t>
-  </si>
-  <si>
     <t>velvet.wav</t>
   </si>
   <si>
-    <t>1047684.000000</t>
-  </si>
-  <si>
-    <t>53783918.432493</t>
-  </si>
-  <si>
-    <t>7136274.212215</t>
-  </si>
-  <si>
-    <t>13.828819</t>
-  </si>
-  <si>
-    <t>11.842294</t>
+    <t>chanchan.wav</t>
+  </si>
+  <si>
+    <t>Średnia</t>
   </si>
 </sst>
 </file>
@@ -345,11 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -630,16 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
@@ -648,7 +430,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -676,20 +458,20 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
+      <c r="D3">
+        <v>1688526</v>
+      </c>
+      <c r="E3">
+        <v>984597.91599699995</v>
+      </c>
+      <c r="F3">
+        <v>45940.023716999996</v>
+      </c>
+      <c r="G3">
+        <v>11.882516000000001</v>
+      </c>
+      <c r="H3">
+        <v>9.4225519999999996</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -697,22 +479,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1378518</v>
+      </c>
+      <c r="E4">
+        <v>2179311.7727299999</v>
+      </c>
+      <c r="F4">
+        <v>297318.83281499997</v>
+      </c>
+      <c r="G4">
+        <v>11.889543</v>
+      </c>
+      <c r="H4">
+        <v>10.719251</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -720,22 +502,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
+      <c r="D5">
+        <v>1063080</v>
+      </c>
+      <c r="E5">
+        <v>25028253.164714999</v>
+      </c>
+      <c r="F5">
+        <v>1148867.4486390001</v>
+      </c>
+      <c r="G5">
+        <v>14.182765</v>
+      </c>
+      <c r="H5">
+        <v>11.693301</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -743,22 +525,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1652746</v>
+      </c>
+      <c r="E6">
+        <v>61346441.926339999</v>
+      </c>
+      <c r="F6">
+        <v>1623003.679149</v>
+      </c>
+      <c r="G6">
+        <v>14.54073</v>
+      </c>
+      <c r="H6">
+        <v>10.056347000000001</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -766,22 +548,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1764588</v>
+      </c>
+      <c r="E7">
+        <v>54135234.796999998</v>
+      </c>
+      <c r="F7">
+        <v>4055992.1877950002</v>
+      </c>
+      <c r="G7">
+        <v>14.831846000000001</v>
+      </c>
+      <c r="H7">
+        <v>12.680255000000001</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -789,22 +571,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1692318</v>
+      </c>
+      <c r="E8">
+        <v>5706843.1008430002</v>
+      </c>
+      <c r="F8">
+        <v>517871.51627199998</v>
+      </c>
+      <c r="G8">
+        <v>12.455685000000001</v>
+      </c>
+      <c r="H8">
+        <v>9.4946179999999991</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -812,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1764384</v>
+      </c>
+      <c r="E9">
+        <v>43845200.695689</v>
+      </c>
+      <c r="F9">
+        <v>2696936.575714</v>
+      </c>
+      <c r="G9">
+        <v>14.685038</v>
+      </c>
+      <c r="H9">
+        <v>12.352198</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -835,22 +617,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>1765496</v>
+      </c>
+      <c r="E10">
+        <v>78248574.411468998</v>
+      </c>
+      <c r="F10">
+        <v>1841797.6750439999</v>
+      </c>
+      <c r="G10">
+        <v>15.101419999999999</v>
+      </c>
+      <c r="H10">
+        <v>11.863737</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -858,22 +640,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1749206</v>
+      </c>
+      <c r="E11">
+        <v>12223548.294354999</v>
+      </c>
+      <c r="F11">
+        <v>1612347.493279</v>
+      </c>
+      <c r="G11">
+        <v>13.737943</v>
+      </c>
+      <c r="H11">
+        <v>11.506192</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -881,22 +663,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1756156</v>
+      </c>
+      <c r="E12">
+        <v>51664030.320414998</v>
+      </c>
+      <c r="F12">
+        <v>3390926.1531290002</v>
+      </c>
+      <c r="G12">
+        <v>14.806514</v>
+      </c>
+      <c r="H12">
+        <v>12.862774</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -904,22 +686,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>1540674</v>
+      </c>
+      <c r="E13">
+        <v>15838569.226852</v>
+      </c>
+      <c r="F13">
+        <v>361483.38203899999</v>
+      </c>
+      <c r="G13">
+        <v>13.831372999999999</v>
+      </c>
+      <c r="H13">
+        <v>11.164281000000001</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -927,22 +709,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>1583468</v>
+      </c>
+      <c r="E14">
+        <v>7765517.3402540004</v>
+      </c>
+      <c r="F14">
+        <v>89120.425375000006</v>
+      </c>
+      <c r="G14">
+        <v>12.372779</v>
+      </c>
+      <c r="H14">
+        <v>9.3615110000000001</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -950,22 +732,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>1604472</v>
+      </c>
+      <c r="E15">
+        <v>45135768.804174997</v>
+      </c>
+      <c r="F15">
+        <v>6092142.8136480004</v>
+      </c>
+      <c r="G15">
+        <v>14.576207</v>
+      </c>
+      <c r="H15">
+        <v>12.941407999999999</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -973,22 +755,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" t="s">
-        <v>90</v>
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1703930</v>
+      </c>
+      <c r="E16">
+        <v>79263721.408280998</v>
+      </c>
+      <c r="F16">
+        <v>4073803.7844059998</v>
+      </c>
+      <c r="G16">
+        <v>15.100598</v>
+      </c>
+      <c r="H16">
+        <v>12.970791999999999</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -996,25 +778,74 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>96</v>
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1751498</v>
+      </c>
+      <c r="E17">
+        <v>5268735.8674919996</v>
+      </c>
+      <c r="F17">
+        <v>299479.96536099998</v>
+      </c>
+      <c r="G17">
+        <v>12.642949</v>
+      </c>
+      <c r="H17">
+        <v>10.395452000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1047684</v>
+      </c>
+      <c r="E18">
+        <v>53783918.432493001</v>
+      </c>
+      <c r="F18">
+        <v>7136274.2122149998</v>
+      </c>
+      <c r="G18">
+        <v>13.828818999999999</v>
+      </c>
+      <c r="H18">
+        <v>11.842294000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM(D3:D18)/16</f>
+        <v>1594171.5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ref="E19:H19" si="0">SUM(E3:E18)/16</f>
+        <v>33901141.717443757</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>2205206.6355373124</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>13.779170312500002</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>11.3329351875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>